--- a/data/pca/factorExposure/factorExposure_2017-08-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02401587136088315</v>
+        <v>0.006389758599686916</v>
       </c>
       <c r="C2">
-        <v>0.00586961218061042</v>
+        <v>0.04184303181523729</v>
       </c>
       <c r="D2">
-        <v>0.0179768045819853</v>
+        <v>0.0297339084339039</v>
       </c>
       <c r="E2">
-        <v>-0.01005302278460716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03271541732430843</v>
+      </c>
+      <c r="F2">
+        <v>-0.02128678406741209</v>
+      </c>
+      <c r="G2">
+        <v>-0.04419311204405336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01507370126743263</v>
+        <v>0.05503450699295154</v>
       </c>
       <c r="C3">
-        <v>0.05670836347083584</v>
+        <v>0.06937373618630288</v>
       </c>
       <c r="D3">
-        <v>0.007603240732129569</v>
+        <v>0.0147522867408507</v>
       </c>
       <c r="E3">
-        <v>-0.008798818896285317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.0997575681780344</v>
+      </c>
+      <c r="F3">
+        <v>-0.05594810112399647</v>
+      </c>
+      <c r="G3">
+        <v>-0.09820397575910834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02294780831275912</v>
+        <v>0.0551140105448174</v>
       </c>
       <c r="C4">
-        <v>0.02324371371506943</v>
+        <v>0.06334681299626903</v>
       </c>
       <c r="D4">
-        <v>0.0608974079180348</v>
+        <v>0.02332808729567451</v>
       </c>
       <c r="E4">
-        <v>0.01704583627518558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01749748698071388</v>
+      </c>
+      <c r="F4">
+        <v>-0.006775529659208653</v>
+      </c>
+      <c r="G4">
+        <v>-0.0584633384722333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01521892823056929</v>
+        <v>0.0368704290127068</v>
       </c>
       <c r="C6">
-        <v>0.01973767160317516</v>
+        <v>0.04921672764264701</v>
       </c>
       <c r="D6">
-        <v>0.08030176441223578</v>
+        <v>0.01546834127912852</v>
       </c>
       <c r="E6">
-        <v>0.008982867011165994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01587968028320001</v>
+      </c>
+      <c r="F6">
+        <v>-0.01350526702283055</v>
+      </c>
+      <c r="G6">
+        <v>-0.03521609983450664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01035055195504442</v>
+        <v>0.01640474335930909</v>
       </c>
       <c r="C7">
-        <v>0.004760674727739079</v>
+        <v>0.03638695649851365</v>
       </c>
       <c r="D7">
-        <v>0.02949748641309692</v>
+        <v>0.01339087788587862</v>
       </c>
       <c r="E7">
-        <v>0.07422511030939552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008327554912968419</v>
+      </c>
+      <c r="F7">
+        <v>-0.003533425536353351</v>
+      </c>
+      <c r="G7">
+        <v>-0.09871709005493746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002729070291930899</v>
+        <v>-0.001807181174495435</v>
       </c>
       <c r="C8">
-        <v>-0.0008565305574722033</v>
+        <v>0.01894169063962078</v>
       </c>
       <c r="D8">
-        <v>0.006664003716211204</v>
+        <v>0.003870681305761821</v>
       </c>
       <c r="E8">
-        <v>0.008443072079137868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02242433256962754</v>
+      </c>
+      <c r="F8">
+        <v>-0.02301490254703084</v>
+      </c>
+      <c r="G8">
+        <v>-0.03174756707645984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01569684899780786</v>
+        <v>0.03203505405328051</v>
       </c>
       <c r="C9">
-        <v>0.02264108632362693</v>
+        <v>0.04389444094565297</v>
       </c>
       <c r="D9">
-        <v>0.04703053061764218</v>
+        <v>0.01601732221698971</v>
       </c>
       <c r="E9">
-        <v>0.007004678476238424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01247827229415837</v>
+      </c>
+      <c r="F9">
+        <v>-0.01184537924789337</v>
+      </c>
+      <c r="G9">
+        <v>-0.05486973810911463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01601880639456453</v>
+        <v>0.09360119107391546</v>
       </c>
       <c r="C10">
-        <v>0.1578988042140548</v>
+        <v>-0.1832845595871552</v>
       </c>
       <c r="D10">
-        <v>-0.1216486190170137</v>
+        <v>-0.01771016358519234</v>
       </c>
       <c r="E10">
-        <v>0.007977410741616951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.009128596050167763</v>
+      </c>
+      <c r="F10">
+        <v>0.0208505393900957</v>
+      </c>
+      <c r="G10">
+        <v>-0.04934410454092828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0005933380028963768</v>
+        <v>0.03121658216997363</v>
       </c>
       <c r="C11">
-        <v>0.009147416318257329</v>
+        <v>0.05364790071303558</v>
       </c>
       <c r="D11">
-        <v>0.04187213537176655</v>
+        <v>0.002401390994625405</v>
       </c>
       <c r="E11">
-        <v>-0.005479794915608034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.006935669052679776</v>
+      </c>
+      <c r="F11">
+        <v>-0.02282170370907366</v>
+      </c>
+      <c r="G11">
+        <v>-0.0366922865262067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005975094226381732</v>
+        <v>0.03122584582013379</v>
       </c>
       <c r="C12">
-        <v>0.01645994930429518</v>
+        <v>0.04636588902211799</v>
       </c>
       <c r="D12">
-        <v>0.04401296113400349</v>
+        <v>0.006315698266556141</v>
       </c>
       <c r="E12">
-        <v>0.002031549198440309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001112573981590788</v>
+      </c>
+      <c r="F12">
+        <v>-0.007251280361872642</v>
+      </c>
+      <c r="G12">
+        <v>-0.03634655327582433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02206539733254141</v>
+        <v>0.01380052865155926</v>
       </c>
       <c r="C13">
-        <v>0.01686146421939612</v>
+        <v>0.03117182541833823</v>
       </c>
       <c r="D13">
-        <v>0.01071932507804937</v>
+        <v>0.02497730770819933</v>
       </c>
       <c r="E13">
-        <v>-0.009289102935583521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02246759778379509</v>
+      </c>
+      <c r="F13">
+        <v>-0.01196366392634614</v>
+      </c>
+      <c r="G13">
+        <v>-0.05256316833055169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007390424801036831</v>
+        <v>0.008139787678997881</v>
       </c>
       <c r="C14">
-        <v>0.01374340691843668</v>
+        <v>0.02575502179687462</v>
       </c>
       <c r="D14">
-        <v>0.01365555951776245</v>
+        <v>0.008622594581990163</v>
       </c>
       <c r="E14">
-        <v>0.01272383908766707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00533753241698031</v>
+      </c>
+      <c r="F14">
+        <v>0.00386588996002296</v>
+      </c>
+      <c r="G14">
+        <v>-0.05481858383090554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001261853921489271</v>
+        <v>0.03138223645685084</v>
       </c>
       <c r="C16">
-        <v>0.0165067716848106</v>
+        <v>0.04450848119295869</v>
       </c>
       <c r="D16">
-        <v>0.04527715328211671</v>
+        <v>0.001734444785881531</v>
       </c>
       <c r="E16">
-        <v>0.0002313169544047185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.006329366513840536</v>
+      </c>
+      <c r="F16">
+        <v>-0.00912062689008545</v>
+      </c>
+      <c r="G16">
+        <v>-0.03603565266696077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01374744094103134</v>
+        <v>0.02297632073143618</v>
       </c>
       <c r="C19">
-        <v>0.02708102275993369</v>
+        <v>0.04925441287498804</v>
       </c>
       <c r="D19">
-        <v>0.01992516171279225</v>
+        <v>0.01645167330492571</v>
       </c>
       <c r="E19">
-        <v>0.002792727661254244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05450070183728226</v>
+      </c>
+      <c r="F19">
+        <v>-0.02609906963707023</v>
+      </c>
+      <c r="G19">
+        <v>-0.06304048807133208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01060947605681826</v>
+        <v>0.01174808126029765</v>
       </c>
       <c r="C20">
-        <v>0.009505131216722517</v>
+        <v>0.03262355544438914</v>
       </c>
       <c r="D20">
-        <v>0.009971153844697935</v>
+        <v>0.01315312122357839</v>
       </c>
       <c r="E20">
-        <v>-0.001048798426657687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02378930579731291</v>
+      </c>
+      <c r="F20">
+        <v>0.002096545804991545</v>
+      </c>
+      <c r="G20">
+        <v>-0.05254985146963615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0149049216004994</v>
+        <v>0.01380760258933709</v>
       </c>
       <c r="C21">
-        <v>0.03225777073751436</v>
+        <v>0.03391258895564729</v>
       </c>
       <c r="D21">
-        <v>0.01732671105012694</v>
+        <v>0.01652088834334258</v>
       </c>
       <c r="E21">
-        <v>0.01687543466151181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03117457008382477</v>
+      </c>
+      <c r="F21">
+        <v>-0.00298724102755179</v>
+      </c>
+      <c r="G21">
+        <v>-0.0757268191747483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004652561766131468</v>
+        <v>0.02455979255024203</v>
       </c>
       <c r="C24">
-        <v>0.004911737717662156</v>
+        <v>0.04804246472948445</v>
       </c>
       <c r="D24">
-        <v>0.04126612705348168</v>
+        <v>0.007273295230035763</v>
       </c>
       <c r="E24">
-        <v>0.0009097444784075758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.002899163289417697</v>
+      </c>
+      <c r="F24">
+        <v>-0.02081681906875818</v>
+      </c>
+      <c r="G24">
+        <v>-0.04007499093363809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01208176393767342</v>
+        <v>0.03936335520689108</v>
       </c>
       <c r="C25">
-        <v>0.02486300283713247</v>
+        <v>0.05535808627151598</v>
       </c>
       <c r="D25">
-        <v>0.04157126859907767</v>
+        <v>0.01134637524124934</v>
       </c>
       <c r="E25">
-        <v>-0.0006943058384777189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004609308339203656</v>
+      </c>
+      <c r="F25">
+        <v>-0.01418915163863801</v>
+      </c>
+      <c r="G25">
+        <v>-0.04478312527746558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02283183501449967</v>
+        <v>0.01231920149510864</v>
       </c>
       <c r="C26">
-        <v>0.01092602694924275</v>
+        <v>0.007825919337214115</v>
       </c>
       <c r="D26">
-        <v>-0.006208932297127079</v>
+        <v>0.02335624416985551</v>
       </c>
       <c r="E26">
-        <v>0.00787261783166591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003227270237615115</v>
+      </c>
+      <c r="F26">
+        <v>0.004433111833770997</v>
+      </c>
+      <c r="G26">
+        <v>-0.04153795710398719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03710832402108451</v>
+        <v>0.1210449163182746</v>
       </c>
       <c r="C28">
-        <v>0.2317079968593659</v>
+        <v>-0.2310559854171745</v>
       </c>
       <c r="D28">
-        <v>-0.1779961673832589</v>
+        <v>-0.008846881668509578</v>
       </c>
       <c r="E28">
-        <v>0.01612267935187735</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002795791220288322</v>
+      </c>
+      <c r="F28">
+        <v>0.01957760118343123</v>
+      </c>
+      <c r="G28">
+        <v>-0.06598030830003045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007875819674914937</v>
+        <v>0.01071338476621973</v>
       </c>
       <c r="C29">
-        <v>0.0197063854262871</v>
+        <v>0.01932822394586947</v>
       </c>
       <c r="D29">
-        <v>0.009996664093563725</v>
+        <v>0.007433677655006792</v>
       </c>
       <c r="E29">
-        <v>0.008354893988450631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007898591512785467</v>
+      </c>
+      <c r="F29">
+        <v>0.01274141499626601</v>
+      </c>
+      <c r="G29">
+        <v>-0.04536318807863087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02329523025066097</v>
+        <v>0.04449821676398572</v>
       </c>
       <c r="C30">
-        <v>0.006195229177242533</v>
+        <v>0.06281667463456422</v>
       </c>
       <c r="D30">
-        <v>0.06485039798209846</v>
+        <v>0.02763467558825351</v>
       </c>
       <c r="E30">
-        <v>-0.05503848805292112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04376199438228824</v>
+      </c>
+      <c r="F30">
+        <v>-0.0550088158173213</v>
+      </c>
+      <c r="G30">
+        <v>-0.02817177676319474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.00846577910377772</v>
+        <v>0.04974508687639585</v>
       </c>
       <c r="C31">
-        <v>0.04264935267680244</v>
+        <v>0.03389406375695279</v>
       </c>
       <c r="D31">
-        <v>0.04362945970379681</v>
+        <v>0.003485853421254016</v>
       </c>
       <c r="E31">
-        <v>0.01114358666079703</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006281638392755649</v>
+      </c>
+      <c r="F31">
+        <v>0.0369765026595895</v>
+      </c>
+      <c r="G31">
+        <v>-0.04565496489791053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006257316900761287</v>
+        <v>-0.003044273350152601</v>
       </c>
       <c r="C32">
-        <v>0.02383418264703413</v>
+        <v>0.02900421200352278</v>
       </c>
       <c r="D32">
-        <v>-0.004254368733191177</v>
+        <v>-0.004052677978195702</v>
       </c>
       <c r="E32">
-        <v>0.0290062999139039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01439929571846679</v>
+      </c>
+      <c r="F32">
+        <v>-0.05018865343112732</v>
+      </c>
+      <c r="G32">
+        <v>-0.06403072561222095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01310500906636437</v>
+        <v>0.02601862983088502</v>
       </c>
       <c r="C33">
-        <v>0.02621977793013813</v>
+        <v>0.04622562094745679</v>
       </c>
       <c r="D33">
-        <v>0.02226092395595885</v>
+        <v>0.01457379554719479</v>
       </c>
       <c r="E33">
-        <v>-0.02293331783920489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02657519795255819</v>
+      </c>
+      <c r="F33">
+        <v>-0.02431061030844735</v>
+      </c>
+      <c r="G33">
+        <v>-0.05757799986892104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004365782104745035</v>
+        <v>0.03887830241041331</v>
       </c>
       <c r="C34">
-        <v>0.02158032678499095</v>
+        <v>0.0575110854917233</v>
       </c>
       <c r="D34">
-        <v>0.04463916836012676</v>
+        <v>-0.004588908531091943</v>
       </c>
       <c r="E34">
-        <v>0.006924834171472827</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004413540424681688</v>
+      </c>
+      <c r="F34">
+        <v>-0.02597834856045482</v>
+      </c>
+      <c r="G34">
+        <v>-0.04695260402116739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01277024141421408</v>
+        <v>0.01212974894639782</v>
       </c>
       <c r="C36">
-        <v>0.02300191253185115</v>
+        <v>0.007620182855547429</v>
       </c>
       <c r="D36">
-        <v>0.002368557627214809</v>
+        <v>0.0114611834745997</v>
       </c>
       <c r="E36">
-        <v>0.002743558515623918</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0002709130651947074</v>
+      </c>
+      <c r="F36">
+        <v>0.007697526042053078</v>
+      </c>
+      <c r="G36">
+        <v>-0.03732293648219019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.004033834659313926</v>
+        <v>0.03050942458510933</v>
       </c>
       <c r="C38">
-        <v>0.03815035964581769</v>
+        <v>0.0283891256075369</v>
       </c>
       <c r="D38">
-        <v>0.02789913794096475</v>
+        <v>-0.007404756490113019</v>
       </c>
       <c r="E38">
-        <v>0.0011792256508747</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004758941657916295</v>
+      </c>
+      <c r="F38">
+        <v>0.00926713381152286</v>
+      </c>
+      <c r="G38">
+        <v>-0.0439452031155402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005550168367252084</v>
+        <v>0.03063465908165763</v>
       </c>
       <c r="C39">
-        <v>-0.01417010103462224</v>
+        <v>0.08101937451501122</v>
       </c>
       <c r="D39">
-        <v>0.09145253467898512</v>
+        <v>0.01227693585627672</v>
       </c>
       <c r="E39">
-        <v>-0.003210822707320778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02128294118797749</v>
+      </c>
+      <c r="F39">
+        <v>-0.03625149730398976</v>
+      </c>
+      <c r="G39">
+        <v>-0.04232324985158616</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01202025482357374</v>
+        <v>0.01885403620332467</v>
       </c>
       <c r="C40">
-        <v>0.0252543989806479</v>
+        <v>0.03195765913922317</v>
       </c>
       <c r="D40">
-        <v>0.02961044049025139</v>
+        <v>0.01338268920918345</v>
       </c>
       <c r="E40">
-        <v>-0.002810832963337538</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01986343101376217</v>
+      </c>
+      <c r="F40">
+        <v>-0.01795668846999851</v>
+      </c>
+      <c r="G40">
+        <v>-0.03953777251251368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005902046172086001</v>
+        <v>0.01134545511045163</v>
       </c>
       <c r="C41">
-        <v>0.02263532829296738</v>
+        <v>0.001951377137180213</v>
       </c>
       <c r="D41">
-        <v>-0.008369127875165189</v>
+        <v>0.004125711536322374</v>
       </c>
       <c r="E41">
-        <v>0.001904530981789296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0007873125087256848</v>
+      </c>
+      <c r="F41">
+        <v>0.0007359266385682719</v>
+      </c>
+      <c r="G41">
+        <v>-0.0264227464707212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09316320519871478</v>
+        <v>0.01431104658994</v>
       </c>
       <c r="C42">
-        <v>0.0002119879691371471</v>
+        <v>0.04199660269881679</v>
       </c>
       <c r="D42">
-        <v>0.2772650466654394</v>
+        <v>0.09451452991328452</v>
       </c>
       <c r="E42">
-        <v>-0.2593436525580357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03620911429213609</v>
+      </c>
+      <c r="F42">
+        <v>0.04175850269285589</v>
+      </c>
+      <c r="G42">
+        <v>0.1539753419121371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.00717872451687729</v>
+        <v>0.02908163205707405</v>
       </c>
       <c r="C43">
-        <v>0.02549711927221538</v>
+        <v>0.01298601027671932</v>
       </c>
       <c r="D43">
-        <v>-0.01252255885643527</v>
+        <v>0.00493258651140935</v>
       </c>
       <c r="E43">
-        <v>-0.00471122166969151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.009103345819723501</v>
+      </c>
+      <c r="F43">
+        <v>0.001568445899132957</v>
+      </c>
+      <c r="G43">
+        <v>-0.03791020611020465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003611202768230393</v>
+        <v>0.01578570472109433</v>
       </c>
       <c r="C44">
-        <v>0.01061201576681246</v>
+        <v>0.04758849929877449</v>
       </c>
       <c r="D44">
-        <v>0.0263702617246857</v>
+        <v>0.006202774542358737</v>
       </c>
       <c r="E44">
-        <v>0.002800226895554595</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01668563179825391</v>
+      </c>
+      <c r="F44">
+        <v>-0.002812094811269367</v>
+      </c>
+      <c r="G44">
+        <v>-0.05729288076015301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01095811879486066</v>
+        <v>0.005908476058497775</v>
       </c>
       <c r="C46">
-        <v>0.01886177635279818</v>
+        <v>0.01692960996483441</v>
       </c>
       <c r="D46">
-        <v>0.01080357692714556</v>
+        <v>0.01144891665882595</v>
       </c>
       <c r="E46">
-        <v>0.001210714696826647</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.006156048948462119</v>
+      </c>
+      <c r="F46">
+        <v>0.01916818250857872</v>
+      </c>
+      <c r="G46">
+        <v>-0.04219097679747257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.002819595874277</v>
+        <v>0.07601461881791732</v>
       </c>
       <c r="C47">
-        <v>0.05758506153970442</v>
+        <v>0.06732432031375452</v>
       </c>
       <c r="D47">
-        <v>0.05700165578304786</v>
+        <v>-0.004794983508474204</v>
       </c>
       <c r="E47">
-        <v>-0.0001846462929507868</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009439467443353651</v>
+      </c>
+      <c r="F47">
+        <v>0.05336698765216522</v>
+      </c>
+      <c r="G47">
+        <v>-0.04107078469723497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.003515364047740175</v>
+        <v>0.02034990164161417</v>
       </c>
       <c r="C48">
-        <v>0.02907659436394156</v>
+        <v>0.009510864719297362</v>
       </c>
       <c r="D48">
-        <v>0.00953325611405389</v>
+        <v>0.0008429781688512951</v>
       </c>
       <c r="E48">
-        <v>0.00365451077153664</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004131743148115621</v>
+      </c>
+      <c r="F48">
+        <v>0.01657032927943236</v>
+      </c>
+      <c r="G48">
+        <v>-0.0439627817538302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.004637345406568725</v>
+        <v>0.07868205323527656</v>
       </c>
       <c r="C50">
-        <v>0.05521691456362846</v>
+        <v>0.06856863344547408</v>
       </c>
       <c r="D50">
-        <v>0.06104379980507927</v>
+        <v>-0.003129540447658248</v>
       </c>
       <c r="E50">
-        <v>0.0290546122540367</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01313201852513045</v>
+      </c>
+      <c r="F50">
+        <v>0.05588373515163001</v>
+      </c>
+      <c r="G50">
+        <v>-0.06524084108495358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007161013305576797</v>
+        <v>0.01197348299901541</v>
       </c>
       <c r="C51">
-        <v>0.01982930621236626</v>
+        <v>0.02959087684294988</v>
       </c>
       <c r="D51">
-        <v>-0.00338701072942728</v>
+        <v>0.009085331050525693</v>
       </c>
       <c r="E51">
-        <v>0.0017571997476278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.009731175248838514</v>
+      </c>
+      <c r="F51">
+        <v>-0.01952782330932667</v>
+      </c>
+      <c r="G51">
+        <v>-0.06391245775711912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.006000092752325471</v>
+        <v>0.0835554265706587</v>
       </c>
       <c r="C53">
-        <v>0.07242688209264439</v>
+        <v>0.08137782580588779</v>
       </c>
       <c r="D53">
-        <v>0.115407402637478</v>
+        <v>-0.004165762226671478</v>
       </c>
       <c r="E53">
-        <v>0.01219373901275232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03311428070479891</v>
+      </c>
+      <c r="F53">
+        <v>0.05792384510887746</v>
+      </c>
+      <c r="G53">
+        <v>-0.04227297700019398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0002207033353096262</v>
+        <v>0.03173849238776234</v>
       </c>
       <c r="C54">
-        <v>0.03583139853981126</v>
+        <v>0.0125335224530417</v>
       </c>
       <c r="D54">
-        <v>-0.008043313433108162</v>
+        <v>-0.002936801384582716</v>
       </c>
       <c r="E54">
-        <v>0.008669877837253911</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0009907726981599509</v>
+      </c>
+      <c r="F54">
+        <v>0.006382145219088268</v>
+      </c>
+      <c r="G54">
+        <v>-0.04694829965752455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003009255567294769</v>
+        <v>0.07139554955766525</v>
       </c>
       <c r="C55">
-        <v>0.05337969992025465</v>
+        <v>0.07262083410447991</v>
       </c>
       <c r="D55">
-        <v>0.0996194464430722</v>
+        <v>-0.004705115742698279</v>
       </c>
       <c r="E55">
-        <v>-0.002015706055034842</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02485299400914569</v>
+      </c>
+      <c r="F55">
+        <v>0.05604434035627777</v>
+      </c>
+      <c r="G55">
+        <v>-0.02344309629764596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.004520230028915722</v>
+        <v>0.1422560742234945</v>
       </c>
       <c r="C56">
-        <v>0.100906108074941</v>
+        <v>0.1077661519916695</v>
       </c>
       <c r="D56">
-        <v>0.1474942413385913</v>
+        <v>-0.01244388722970889</v>
       </c>
       <c r="E56">
-        <v>0.003388454365390604</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03717848458350342</v>
+      </c>
+      <c r="F56">
+        <v>0.08051058314857389</v>
+      </c>
+      <c r="G56">
+        <v>-0.01250643873568705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02414833695759248</v>
+        <v>0.009386276487670233</v>
       </c>
       <c r="C57">
-        <v>0.02387596551771036</v>
+        <v>0.009621976668890336</v>
       </c>
       <c r="D57">
-        <v>0.0404794082385572</v>
+        <v>0.02352036144404054</v>
       </c>
       <c r="E57">
-        <v>-0.001601956068290163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02621000820906641</v>
+      </c>
+      <c r="F57">
+        <v>-0.0130970813788383</v>
+      </c>
+      <c r="G57">
+        <v>-0.0248607283974651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01297458913219822</v>
+        <v>0.0821251878933944</v>
       </c>
       <c r="C58">
-        <v>0.1047595943867164</v>
+        <v>0.03308602082932825</v>
       </c>
       <c r="D58">
-        <v>0.08917550372711693</v>
+        <v>0.01566543237781524</v>
       </c>
       <c r="E58">
-        <v>-0.2087483659784124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9463472982985208</v>
+      </c>
+      <c r="F58">
+        <v>0.2172750380047173</v>
+      </c>
+      <c r="G58">
+        <v>0.01893261002736159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03341237177902048</v>
+        <v>0.1617754363417057</v>
       </c>
       <c r="C59">
-        <v>0.244083275002327</v>
+        <v>-0.2107031927151901</v>
       </c>
       <c r="D59">
-        <v>-0.1786591079943726</v>
+        <v>-0.01596535334303507</v>
       </c>
       <c r="E59">
-        <v>-0.008396986425797887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.002169812784690177</v>
+      </c>
+      <c r="F59">
+        <v>0.001326530483331869</v>
+      </c>
+      <c r="G59">
+        <v>-0.02140901820286914</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03725158076479317</v>
+        <v>0.2842988859759994</v>
       </c>
       <c r="C60">
-        <v>0.1653758135084948</v>
+        <v>0.1019769343930646</v>
       </c>
       <c r="D60">
-        <v>0.06783558109698822</v>
+        <v>0.01166168110324947</v>
       </c>
       <c r="E60">
-        <v>-0.03734178074790621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.005713386961834717</v>
+      </c>
+      <c r="F60">
+        <v>-0.3537187181127595</v>
+      </c>
+      <c r="G60">
+        <v>0.1027722449679555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0037158298813808</v>
+        <v>0.03394477824809726</v>
       </c>
       <c r="C61">
-        <v>0.01341553784533399</v>
+        <v>0.0648863145688067</v>
       </c>
       <c r="D61">
-        <v>0.06199319232540272</v>
+        <v>0.00554812657610706</v>
       </c>
       <c r="E61">
-        <v>-0.000448417144976272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01045769246424201</v>
+      </c>
+      <c r="F61">
+        <v>-0.02034720296303313</v>
+      </c>
+      <c r="G61">
+        <v>-0.03828205100844302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007497151655116698</v>
+        <v>0.01320336771746685</v>
       </c>
       <c r="C63">
-        <v>0.01000111979217493</v>
+        <v>0.02797781866762758</v>
       </c>
       <c r="D63">
-        <v>0.007486697090304631</v>
+        <v>0.00797087100147385</v>
       </c>
       <c r="E63">
-        <v>0.008017435843114698</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004360324494297269</v>
+      </c>
+      <c r="F63">
+        <v>0.01670813350502572</v>
+      </c>
+      <c r="G63">
+        <v>-0.04712804784013801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008174203752233426</v>
+        <v>0.05126177860781114</v>
       </c>
       <c r="C64">
-        <v>0.03520650105210303</v>
+        <v>0.04393606919099743</v>
       </c>
       <c r="D64">
-        <v>0.06492382247703339</v>
+        <v>0.005516016930897434</v>
       </c>
       <c r="E64">
-        <v>-0.009703836382816173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006846956095609828</v>
+      </c>
+      <c r="F64">
+        <v>-0.003857340435346055</v>
+      </c>
+      <c r="G64">
+        <v>-0.03359459117694086</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01773100388697335</v>
+        <v>0.08415522799292204</v>
       </c>
       <c r="C65">
-        <v>0.02568180169967202</v>
+        <v>0.05953973871608147</v>
       </c>
       <c r="D65">
-        <v>0.09017026326620503</v>
+        <v>0.01485893609364666</v>
       </c>
       <c r="E65">
-        <v>0.008134814391254805</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01708314788362808</v>
+      </c>
+      <c r="F65">
+        <v>-0.03579866818613737</v>
+      </c>
+      <c r="G65">
+        <v>-0.01557687704592144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005459506344608959</v>
+        <v>0.04936371837770196</v>
       </c>
       <c r="C66">
-        <v>-0.004315292596910155</v>
+        <v>0.1128476375365726</v>
       </c>
       <c r="D66">
-        <v>0.1174323016695299</v>
+        <v>0.01214925772448477</v>
       </c>
       <c r="E66">
-        <v>-0.01518232474704429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02743425502979779</v>
+      </c>
+      <c r="F66">
+        <v>-0.04492336316483183</v>
+      </c>
+      <c r="G66">
+        <v>-0.03849323351439058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001998051158412973</v>
+        <v>0.05256388543541485</v>
       </c>
       <c r="C67">
-        <v>0.05908500985678178</v>
+        <v>0.03268791688185893</v>
       </c>
       <c r="D67">
-        <v>0.03249614385807222</v>
+        <v>-0.005438938179312571</v>
       </c>
       <c r="E67">
-        <v>-0.0006441867582888806</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.001495140554361907</v>
+      </c>
+      <c r="F67">
+        <v>0.01187885255009786</v>
+      </c>
+      <c r="G67">
+        <v>-0.04061410861594957</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05091313050443143</v>
+        <v>0.1441918061336545</v>
       </c>
       <c r="C68">
-        <v>0.2182266451220177</v>
+        <v>-0.2697465021510403</v>
       </c>
       <c r="D68">
-        <v>-0.1662532601898355</v>
+        <v>0.002269618005243578</v>
       </c>
       <c r="E68">
-        <v>-0.01360510978048719</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003218597419792307</v>
+      </c>
+      <c r="F68">
+        <v>0.04057938996985017</v>
+      </c>
+      <c r="G68">
+        <v>-0.02140878958783407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001761365959277122</v>
+        <v>0.07611507227828311</v>
       </c>
       <c r="C69">
-        <v>0.0482666646010329</v>
+        <v>0.06916238905554217</v>
       </c>
       <c r="D69">
-        <v>0.06196602296001626</v>
+        <v>-0.008546418201011896</v>
       </c>
       <c r="E69">
-        <v>0.001422426869843791</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02665455611817644</v>
+      </c>
+      <c r="F69">
+        <v>0.03927107066432337</v>
+      </c>
+      <c r="G69">
+        <v>-0.04559930222776545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03700780562557051</v>
+        <v>0.1377231247520466</v>
       </c>
       <c r="C71">
-        <v>0.1924534464256134</v>
+        <v>-0.2324213699685176</v>
       </c>
       <c r="D71">
-        <v>-0.1505862841107981</v>
+        <v>-0.006535773665139454</v>
       </c>
       <c r="E71">
-        <v>0.001813908882538192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0215431561522321</v>
+      </c>
+      <c r="F71">
+        <v>0.01096222503648593</v>
+      </c>
+      <c r="G71">
+        <v>-0.03857346985340415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0003691096066825444</v>
+        <v>0.08347757311015738</v>
       </c>
       <c r="C72">
-        <v>0.05739168099080425</v>
+        <v>0.07355149391207479</v>
       </c>
       <c r="D72">
-        <v>0.1299969378454318</v>
+        <v>-0.00807247367888711</v>
       </c>
       <c r="E72">
-        <v>-0.01516614809155641</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005857879600117833</v>
+      </c>
+      <c r="F72">
+        <v>-0.04211858923663795</v>
+      </c>
+      <c r="G72">
+        <v>-0.01620464475121558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05141582007100399</v>
+        <v>0.3953535892223353</v>
       </c>
       <c r="C73">
-        <v>0.1979238436150697</v>
+        <v>0.1144799759371845</v>
       </c>
       <c r="D73">
-        <v>0.1606464140856373</v>
+        <v>0.01782155970268336</v>
       </c>
       <c r="E73">
-        <v>-0.08929205983315291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05422705666969999</v>
+      </c>
+      <c r="F73">
+        <v>-0.5600438388701804</v>
+      </c>
+      <c r="G73">
+        <v>0.1768760915700052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001998255883387342</v>
+        <v>0.1109947643655308</v>
       </c>
       <c r="C74">
-        <v>0.09102199964445185</v>
+        <v>0.1175780566617855</v>
       </c>
       <c r="D74">
-        <v>0.1535570090385751</v>
+        <v>-0.00948105473430786</v>
       </c>
       <c r="E74">
-        <v>-0.00361059745176302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01530629703172896</v>
+      </c>
+      <c r="F74">
+        <v>0.07236923051074895</v>
+      </c>
+      <c r="G74">
+        <v>-0.0501668824586246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.008185624976723387</v>
+        <v>0.2492597555963608</v>
       </c>
       <c r="C75">
-        <v>0.2037729565416482</v>
+        <v>0.1586274981237601</v>
       </c>
       <c r="D75">
-        <v>0.2777446022610995</v>
+        <v>-0.02916457407439601</v>
       </c>
       <c r="E75">
-        <v>-0.01434790017010724</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05326498243609322</v>
+      </c>
+      <c r="F75">
+        <v>0.1860341322906206</v>
+      </c>
+      <c r="G75">
+        <v>0.0340712526406983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001985559059917187</v>
+        <v>0.1263981770763211</v>
       </c>
       <c r="C76">
-        <v>0.1341442109632608</v>
+        <v>0.1181958440316772</v>
       </c>
       <c r="D76">
-        <v>0.2245774888382115</v>
+        <v>-0.02028805610197497</v>
       </c>
       <c r="E76">
-        <v>0.01694583640368954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0471414696610749</v>
+      </c>
+      <c r="F76">
+        <v>0.1173490467397268</v>
+      </c>
+      <c r="G76">
+        <v>-0.02934298148526235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01214671181744548</v>
+        <v>0.06434166460926752</v>
       </c>
       <c r="C77">
-        <v>0.02047890138329952</v>
+        <v>0.06072762881991822</v>
       </c>
       <c r="D77">
-        <v>0.05157961914511672</v>
+        <v>0.01228597172187807</v>
       </c>
       <c r="E77">
-        <v>-0.004523836872649309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04941763310499792</v>
+      </c>
+      <c r="F77">
+        <v>-0.01541320806579536</v>
+      </c>
+      <c r="G77">
+        <v>-0.05118838405932269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004593400668658895</v>
+        <v>0.04130572195876821</v>
       </c>
       <c r="C78">
-        <v>0.01895713501355807</v>
+        <v>0.05049131911273805</v>
       </c>
       <c r="D78">
-        <v>0.06086231749290314</v>
+        <v>0.005461739309326909</v>
       </c>
       <c r="E78">
-        <v>0.003129893025330985</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0197506664208277</v>
+      </c>
+      <c r="F78">
+        <v>-0.04287497771659102</v>
+      </c>
+      <c r="G78">
+        <v>-0.04659560110891117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01725844537484016</v>
+        <v>0.0550689343335001</v>
       </c>
       <c r="C80">
-        <v>0.117187016768424</v>
+        <v>0.06161146144575618</v>
       </c>
       <c r="D80">
-        <v>0.1302617983272234</v>
+        <v>0.01259753866687575</v>
       </c>
       <c r="E80">
-        <v>0.9178803049344496</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03527720687731498</v>
+      </c>
+      <c r="F80">
+        <v>-0.04101121545703625</v>
+      </c>
+      <c r="G80">
+        <v>-0.855377060554998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.006041422401614452</v>
+        <v>0.1442719818734784</v>
       </c>
       <c r="C81">
-        <v>0.1267021600375633</v>
+        <v>0.09429718753676565</v>
       </c>
       <c r="D81">
-        <v>0.1623494078172709</v>
+        <v>-0.0148557610140622</v>
       </c>
       <c r="E81">
-        <v>0.0014337339639042</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0305999381649827</v>
+      </c>
+      <c r="F81">
+        <v>0.1239673607155257</v>
+      </c>
+      <c r="G81">
+        <v>-0.02359975444063375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1020513485963395</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05407490898566707</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.005097493664554478</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07768046986473676</v>
+      </c>
+      <c r="F82">
+        <v>0.01898670086803181</v>
+      </c>
+      <c r="G82">
+        <v>-0.0207126953567714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007163391336669139</v>
+        <v>0.02758591238414957</v>
       </c>
       <c r="C83">
-        <v>0.02552769325884435</v>
+        <v>0.02117294375807278</v>
       </c>
       <c r="D83">
-        <v>0.02249193699828153</v>
+        <v>0.005381026396018253</v>
       </c>
       <c r="E83">
-        <v>-0.002556634902399405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02412713360120131</v>
+      </c>
+      <c r="F83">
+        <v>-0.02387399645884629</v>
+      </c>
+      <c r="G83">
+        <v>-0.03007299996779376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01440439998440088</v>
+        <v>0.2214337180724271</v>
       </c>
       <c r="C85">
-        <v>0.1563604654873658</v>
+        <v>0.1499915016259429</v>
       </c>
       <c r="D85">
-        <v>0.2597628465427113</v>
+        <v>-0.01744561735107307</v>
       </c>
       <c r="E85">
-        <v>-0.02089173390813976</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09332429953505408</v>
+      </c>
+      <c r="F85">
+        <v>0.154373248238943</v>
+      </c>
+      <c r="G85">
+        <v>0.06443649345912791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007355203194666848</v>
+        <v>0.01074254385650543</v>
       </c>
       <c r="C86">
-        <v>0.02706865409264115</v>
+        <v>0.01624229382010158</v>
       </c>
       <c r="D86">
-        <v>0.008896987405905138</v>
+        <v>0.0100605447575034</v>
       </c>
       <c r="E86">
-        <v>-0.02529186737821137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03323020931528754</v>
+      </c>
+      <c r="F86">
+        <v>-0.03026108542033153</v>
+      </c>
+      <c r="G86">
+        <v>-0.08053640006292266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007546047678401185</v>
+        <v>0.01979609328133935</v>
       </c>
       <c r="C87">
-        <v>0.01610287135880609</v>
+        <v>0.02324761610215237</v>
       </c>
       <c r="D87">
-        <v>0.04099012093679705</v>
+        <v>0.01059979240738917</v>
       </c>
       <c r="E87">
-        <v>-0.004547692680816</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0819301830862908</v>
+      </c>
+      <c r="F87">
+        <v>-0.02641528179364897</v>
+      </c>
+      <c r="G87">
+        <v>-0.06079756698552409</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02687107349478432</v>
+        <v>0.08989186787699631</v>
       </c>
       <c r="C88">
-        <v>0.03429046444566137</v>
+        <v>0.06530426542148871</v>
       </c>
       <c r="D88">
-        <v>0.03737053435727074</v>
+        <v>0.02290456135226201</v>
       </c>
       <c r="E88">
-        <v>-0.001165032529421986</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01345669533493223</v>
+      </c>
+      <c r="F88">
+        <v>0.0169520382759908</v>
+      </c>
+      <c r="G88">
+        <v>-0.03785296113047582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07048819865161118</v>
+        <v>0.2245851315746373</v>
       </c>
       <c r="C89">
-        <v>0.3561317296016986</v>
+        <v>-0.3655063668779381</v>
       </c>
       <c r="D89">
-        <v>-0.2597948071640747</v>
+        <v>-0.005429545485064325</v>
       </c>
       <c r="E89">
-        <v>-0.02573629031099327</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02268483451252117</v>
+      </c>
+      <c r="F89">
+        <v>0.02975785628826113</v>
+      </c>
+      <c r="G89">
+        <v>-0.03162856841273046</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.05291721891979341</v>
+        <v>0.2014757983784181</v>
       </c>
       <c r="C90">
-        <v>0.2677275901604552</v>
+        <v>-0.3274289360427872</v>
       </c>
       <c r="D90">
-        <v>-0.2270675285264634</v>
+        <v>-0.009660201198832721</v>
       </c>
       <c r="E90">
-        <v>-0.02432979904431614</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0225309570104334</v>
+      </c>
+      <c r="F90">
+        <v>0.04769070710520916</v>
+      </c>
+      <c r="G90">
+        <v>-0.006445393344466992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.00428037341898172</v>
+        <v>0.1973652122635332</v>
       </c>
       <c r="C91">
-        <v>0.1735338590263477</v>
+        <v>0.1410090540541183</v>
       </c>
       <c r="D91">
-        <v>0.2344961154895525</v>
+        <v>-0.02305307753372237</v>
       </c>
       <c r="E91">
-        <v>-0.001451159297009112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0697968720977075</v>
+      </c>
+      <c r="F91">
+        <v>0.1585876413820957</v>
+      </c>
+      <c r="G91">
+        <v>-0.009465656723787637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02088681590896702</v>
+        <v>0.2064970925230623</v>
       </c>
       <c r="C92">
-        <v>0.3101353525070554</v>
+        <v>-0.2626980496154906</v>
       </c>
       <c r="D92">
-        <v>-0.1200448583538181</v>
+        <v>-0.0459296084698808</v>
       </c>
       <c r="E92">
-        <v>-0.01134718240157101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003685146019988917</v>
+      </c>
+      <c r="F92">
+        <v>0.07761879753503872</v>
+      </c>
+      <c r="G92">
+        <v>-0.07698162515179126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05111610033760551</v>
+        <v>0.2300198620120473</v>
       </c>
       <c r="C93">
-        <v>0.2996025347404056</v>
+        <v>-0.3206738061326354</v>
       </c>
       <c r="D93">
-        <v>-0.2249623363432371</v>
+        <v>-0.01640382682539197</v>
       </c>
       <c r="E93">
-        <v>-0.04256010568694733</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008162227890439312</v>
+      </c>
+      <c r="F93">
+        <v>0.03696169188433488</v>
+      </c>
+      <c r="G93">
+        <v>-0.005284724889927165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.0269428677791702</v>
+        <v>0.3001904128891102</v>
       </c>
       <c r="C94">
-        <v>0.2038856870337612</v>
+        <v>0.1919003061562109</v>
       </c>
       <c r="D94">
-        <v>0.242302838268128</v>
+        <v>-0.01342333191249338</v>
       </c>
       <c r="E94">
-        <v>-0.04906783535353321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1458922131976611</v>
+      </c>
+      <c r="F94">
+        <v>0.4879526207179024</v>
+      </c>
+      <c r="G94">
+        <v>0.1967950319148511</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004893337940310306</v>
+        <v>0.08707105717594642</v>
       </c>
       <c r="C95">
-        <v>0.05031203307991807</v>
+        <v>0.07411910474582978</v>
       </c>
       <c r="D95">
-        <v>0.09342021883356857</v>
+        <v>-0.008433215512312981</v>
       </c>
       <c r="E95">
-        <v>-0.1098247860196785</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06558862855105067</v>
+      </c>
+      <c r="F95">
+        <v>-0.1581464711656562</v>
+      </c>
+      <c r="G95">
+        <v>0.05603478684815743</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01193585122652623</v>
+        <v>0.1970954376541814</v>
       </c>
       <c r="C98">
-        <v>0.1716703238894254</v>
+        <v>0.04190577981581765</v>
       </c>
       <c r="D98">
-        <v>0.1092810937611156</v>
+        <v>-0.0138226475252558</v>
       </c>
       <c r="E98">
-        <v>-0.0546837961176045</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06477222683884558</v>
+      </c>
+      <c r="F98">
+        <v>-0.2525944806435169</v>
+      </c>
+      <c r="G98">
+        <v>0.03156023597229575</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007662182500706613</v>
+        <v>0.01049765551121585</v>
       </c>
       <c r="C101">
-        <v>0.01933149124082988</v>
+        <v>0.01929431050599898</v>
       </c>
       <c r="D101">
-        <v>0.009780217543811455</v>
+        <v>0.007262844458462035</v>
       </c>
       <c r="E101">
-        <v>0.008812142739002098</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008126315974233111</v>
+      </c>
+      <c r="F101">
+        <v>0.01383989177043331</v>
+      </c>
+      <c r="G101">
+        <v>-0.04519703028222733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01650053697002251</v>
+        <v>0.1192839506891786</v>
       </c>
       <c r="C102">
-        <v>0.08925733551072634</v>
+        <v>0.08639140736783521</v>
       </c>
       <c r="D102">
-        <v>0.1245081520368174</v>
+        <v>0.001841575581578773</v>
       </c>
       <c r="E102">
-        <v>-0.008803759054902244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0291072673201361</v>
+      </c>
+      <c r="F102">
+        <v>0.03597114427599222</v>
+      </c>
+      <c r="G102">
+        <v>0.0005637480055897574</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001611083224228055</v>
+        <v>0.00349383693471768</v>
       </c>
       <c r="C103">
-        <v>0.0124774610617938</v>
+        <v>0.004947398167440381</v>
       </c>
       <c r="D103">
-        <v>0.02565296980482407</v>
+        <v>0.0001845212190184091</v>
       </c>
       <c r="E103">
-        <v>0.01722115820628578</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001411639873272478</v>
+      </c>
+      <c r="F103">
+        <v>0.009576714381401397</v>
+      </c>
+      <c r="G103">
+        <v>-0.01711704751869316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9799281811442186</v>
+        <v>0.02797769924831471</v>
       </c>
       <c r="C104">
-        <v>-0.1465007533735625</v>
+        <v>-0.03889603279252843</v>
       </c>
       <c r="D104">
-        <v>-0.00209351823500021</v>
+        <v>0.9875548059283215</v>
       </c>
       <c r="E104">
-        <v>0.02549597980575674</v>
+        <v>-0.03803969578025666</v>
+      </c>
+      <c r="F104">
+        <v>0.04074150187413164</v>
+      </c>
+      <c r="G104">
+        <v>0.01227602581122186</v>
       </c>
     </row>
   </sheetData>
